--- a/黑色/玻璃/eta/纯碱开工率_月度数据.xlsx
+++ b/黑色/玻璃/eta/纯碱开工率_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>79.8</v>
+        <v>75.7</v>
       </c>
     </row>
     <row r="3">
@@ -469,7 +469,7 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>81.59999999999999</v>
+        <v>77.5</v>
       </c>
     </row>
     <row r="4">
@@ -482,7 +482,7 @@
         <v>84.90000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>81.59999999999999</v>
+        <v>80.2</v>
       </c>
     </row>
     <row r="5">
@@ -508,7 +508,7 @@
         <v>84.8</v>
       </c>
       <c r="C6" t="n">
-        <v>82.8</v>
+        <v>82.7</v>
       </c>
     </row>
     <row r="7">
